--- a/casestudy/css-loader-1036/results.xlsx
+++ b/casestudy/css-loader-1036/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/css-loader-1036/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E48A58-F0DE-194F-BAED-43CE346D68E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34103E2F-AFFC-C14B-8892-07DB02606F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
+    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="5" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
   </bookViews>
   <sheets>
     <sheet name="bug" sheetId="6" r:id="rId1"/>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45260694-0BBD-5143-B71E-4CB7D6F62B75}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C430C8-EF7C-864F-9C13-90FBBD429C35}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611F4CE5-1A94-D544-828F-3756B1B1292E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8478CE-4E42-ED49-86FC-D0F1E49FB7E9}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAD8DAD-99CB-094E-8B83-51C6C4237597}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
